--- a/RegressionTests/Unit_Test_5/transformed_Ext_rows(1)/expected_sptrans_anon.603570-20_12_03 nov 7721.50.xlsx
+++ b/RegressionTests/Unit_Test_5/transformed_Ext_rows(1)/expected_sptrans_anon.603570-20_12_03 nov 7721.50.xlsx
@@ -4,43 +4,32 @@
   <fileVersion appName="Calc"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="27" activeTab="32"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="14" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="~January 2020" sheetId="1" r:id="rId2"/>
     <sheet name="January 2020" sheetId="12" r:id="rId3"/>
-    <sheet name="$January 2020" sheetId="24" r:id="rId4"/>
-    <sheet name="~February 2020" sheetId="2" r:id="rId5"/>
-    <sheet name="February 2020" sheetId="13" r:id="rId6"/>
-    <sheet name="$February 2020" sheetId="25" r:id="rId7"/>
-    <sheet name="~March 2020" sheetId="3" r:id="rId8"/>
-    <sheet name="March 2020" sheetId="14" r:id="rId9"/>
-    <sheet name="$March 2020" sheetId="26" r:id="rId10"/>
-    <sheet name="~April 2020" sheetId="4" r:id="rId11"/>
-    <sheet name="April 2020" sheetId="15" r:id="rId12"/>
-    <sheet name="$April 2020" sheetId="27" r:id="rId13"/>
-    <sheet name="~May 2020" sheetId="5" r:id="rId14"/>
-    <sheet name="May 2020" sheetId="16" r:id="rId15"/>
-    <sheet name="$May 2020" sheetId="28" r:id="rId16"/>
-    <sheet name="~June 2020" sheetId="6" r:id="rId17"/>
-    <sheet name="June 2020" sheetId="17" r:id="rId18"/>
-    <sheet name="$June 2020" sheetId="29" r:id="rId19"/>
-    <sheet name="~July 2020" sheetId="7" r:id="rId20"/>
-    <sheet name="July 2020" sheetId="18" r:id="rId21"/>
-    <sheet name="$July 2020" sheetId="30" r:id="rId22"/>
-    <sheet name="~August 2020" sheetId="8" r:id="rId23"/>
-    <sheet name="August 2020" sheetId="19" r:id="rId24"/>
-    <sheet name="$August 2020" sheetId="31" r:id="rId25"/>
-    <sheet name="~September 2020" sheetId="9" r:id="rId26"/>
-    <sheet name="September 2020" sheetId="20" r:id="rId27"/>
-    <sheet name="$September 2020" sheetId="32" r:id="rId28"/>
-    <sheet name="~October 2020" sheetId="10" r:id="rId29"/>
-    <sheet name="October 2020" sheetId="21" r:id="rId30"/>
-    <sheet name="$October 2020" sheetId="33" r:id="rId31"/>
-    <sheet name="~November 2020" sheetId="11" r:id="rId32"/>
-    <sheet name="November 2020" sheetId="22" r:id="rId33"/>
-    <sheet name="$November 2020" sheetId="34" r:id="rId34"/>
-    <sheet name="#November 2020" sheetId="23" r:id="rId35"/>
+    <sheet name="~February 2020" sheetId="2" r:id="rId4"/>
+    <sheet name="February 2020" sheetId="13" r:id="rId5"/>
+    <sheet name="~March 2020" sheetId="3" r:id="rId6"/>
+    <sheet name="March 2020" sheetId="14" r:id="rId7"/>
+    <sheet name="~April 2020" sheetId="4" r:id="rId8"/>
+    <sheet name="April 2020" sheetId="15" r:id="rId9"/>
+    <sheet name="~May 2020" sheetId="5" r:id="rId10"/>
+    <sheet name="May 2020" sheetId="16" r:id="rId11"/>
+    <sheet name="~June 2020" sheetId="6" r:id="rId12"/>
+    <sheet name="June 2020" sheetId="17" r:id="rId13"/>
+    <sheet name="~July 2020" sheetId="7" r:id="rId14"/>
+    <sheet name="July 2020" sheetId="18" r:id="rId15"/>
+    <sheet name="~August 2020" sheetId="8" r:id="rId16"/>
+    <sheet name="August 2020" sheetId="19" r:id="rId17"/>
+    <sheet name="~September 2020" sheetId="9" r:id="rId18"/>
+    <sheet name="September 2020" sheetId="20" r:id="rId19"/>
+    <sheet name="~October 2020" sheetId="10" r:id="rId20"/>
+    <sheet name="October 2020" sheetId="21" r:id="rId21"/>
+    <sheet name="~November 2020" sheetId="11" r:id="rId22"/>
+    <sheet name="November 2020" sheetId="22" r:id="rId23"/>
+    <sheet name="#November 2020" sheetId="23" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913"/>
@@ -49,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="119">
   <si>
     <t>ACG Aircraft Leasing Ireland Limited</t>
   </si>
@@ -246,9 +235,29 @@
     <t>SPER</t>
   </si>
   <si>
+    <t>Refno 0798147 does not exist for Scheme ID 601010
+PPS number 4073312M does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0913434 does not exist for Scheme ID 601010
+PPS number 5439331U does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Refno 0899555 does not exist for Scheme ID 601010
+PPS number 2576389U does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>899555</t>
   </si>
   <si>
+    <t>Refno 0969877 does not exist for Scheme ID 601010
+PPS number 6187938N does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>969877</t>
   </si>
   <si>
@@ -264,19 +273,169 @@
     <t>False</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>1178489</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>18/08/2021</t>
+  </si>
+  <si>
+    <t>7,517.33</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM August 2021</t>
+  </si>
+  <si>
+    <t>1173971</t>
+  </si>
+  <si>
+    <t>16/07/2021</t>
+  </si>
+  <si>
+    <t>1,533.32</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM Julne 2021</t>
+  </si>
+  <si>
+    <t>1173522</t>
+  </si>
+  <si>
+    <t>5,984.01</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>1149840</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>25/02/2021</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>19,177.74</t>
+  </si>
+  <si>
+    <t>Revised Risk (Total/12*4)</t>
+  </si>
+  <si>
+    <t>1122062</t>
+  </si>
+  <si>
+    <t>01/07/2020</t>
+  </si>
+  <si>
+    <t>19,974.02</t>
+  </si>
+  <si>
+    <t>2020Risk</t>
+  </si>
+  <si>
+    <t>1067417</t>
+  </si>
+  <si>
+    <t>01/07/2019</t>
+  </si>
+  <si>
+    <t>15,889.15</t>
+  </si>
+  <si>
+    <t>2019 Costs</t>
+  </si>
+  <si>
+    <t>35300</t>
+  </si>
+  <si>
+    <t>101000</t>
+  </si>
+  <si>
+    <t>30/05/2000</t>
+  </si>
+  <si>
+    <t>06/04/2000</t>
+  </si>
+  <si>
+    <t>1,250.13</t>
+  </si>
+  <si>
+    <t>01/05/2000</t>
+  </si>
+  <si>
+    <t>May 00</t>
+  </si>
+  <si>
+    <t>35036</t>
+  </si>
+  <si>
+    <t>24/05/2000</t>
+  </si>
+  <si>
+    <t>03/05/2000</t>
+  </si>
+  <si>
+    <t>01/04/2000</t>
+  </si>
+  <si>
+    <t>Apr '00 intd</t>
+  </si>
+  <si>
+    <t>29038</t>
+  </si>
+  <si>
+    <t>15/03/2000</t>
+  </si>
+  <si>
+    <t>01/03/2000</t>
+  </si>
+  <si>
+    <t>Mar 00</t>
   </si>
 </sst>
 </file>
@@ -294,7 +453,7 @@
     <numFmt numFmtId="171" formatCode="0.00"/>
     <numFmt numFmtId="172" formatCode="0%"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -374,6 +533,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -381,7 +555,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,18 +565,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +625,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -636,18 +798,17 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1285,304 +1446,6 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="C18" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="31.375" customWidth="1"/>
-    <col min="12" max="1025" width="8.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="14.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.4">
-      <c r="A2" s="1">
-        <v>603570.0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.4">
-      <c r="A3" s="5">
-        <v>43922.0</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="14.4">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.4">
-      <c r="A6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="11">
-        <v>23291.67</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="G6" s="13">
-        <f>SUM(E6*F6)</f>
-        <v>931.6668</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="13">
-        <f>SUM(E6*H6)</f>
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="14">
-        <f>SUM(G6+I6)</f>
-        <v>931.6668</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.4">
-      <c r="A7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13">
-        <v>6280.0</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14">
-        <f>SUM(G7+I7)</f>
-        <v>6280.0</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="22" customFormat="1" ht="14.4">
-      <c r="A8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0.085</v>
-      </c>
-      <c r="G8" s="11">
-        <f>SUM(E8*F8)</f>
-        <v>850.0</v>
-      </c>
-      <c r="H8" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="I8" s="11">
-        <f>SUM(E8*H8)</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J8" s="20">
-        <f>SUM(G8+I8)</f>
-        <v>1850.0</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.4">
-      <c r="A9" s="10">
-        <v>899555.0</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="11">
-        <v>21666.67</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.08269998</v>
-      </c>
-      <c r="G9" s="13">
-        <f>SUM(E9*F9)</f>
-        <v>1791.8331756666</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="I9" s="13">
-        <f>SUM(E9*H9)</f>
-        <v>650.0001</v>
-      </c>
-      <c r="J9" s="14">
-        <f>SUM(G9+I9)</f>
-        <v>2441.8332756666</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.4">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="14">
-        <f>SUM(G6:G9)</f>
-        <v>9853.4999756666</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14">
-        <f>SUM(I6:I9)</f>
-        <v>1650.0001</v>
-      </c>
-      <c r="J10" s="24">
-        <f>SUM(J6:J9)</f>
-        <v>11503.5000756666</v>
-      </c>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="12" spans="7:7" ht="14.4">
-      <c r="G12">
-        <v>6280.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="landscape" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:F4"/>
@@ -1593,7 +1456,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -1617,8 +1480,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -1632,11 +1497,13 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
-        <v>7211.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="46"/>
+        <v>931.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -1653,10 +1520,12 @@
         <v>850.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -1668,7 +1537,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
-        <v>1791.83</v>
+        <v>3088.11</v>
       </c>
     </row>
   </sheetData>
@@ -1677,447 +1546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="31.375" customWidth="1"/>
-    <col min="12" max="1025" width="8.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="14.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.4">
-      <c r="A2" s="1">
-        <v>603570.0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.4">
-      <c r="A3" s="5">
-        <v>43952.0</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="14.4">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.4">
-      <c r="A6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="11">
-        <v>23291.67</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="G6" s="13">
-        <f>SUM(E6*F6)</f>
-        <v>931.6668</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="13">
-        <f>SUM(E6*H6)</f>
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="14">
-        <f>SUM(G6+I6)</f>
-        <v>931.6668</v>
-      </c>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" s="22" customFormat="1" ht="14.4">
-      <c r="A7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0.085</v>
-      </c>
-      <c r="G7" s="11">
-        <f>SUM(E7*F7)</f>
-        <v>850.0</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="I7" s="11">
-        <f>SUM(E7*H7)</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J7" s="20">
-        <f>SUM(G7+I7)</f>
-        <v>1850.0</v>
-      </c>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" ht="14.4">
-      <c r="A8" s="10">
-        <v>899555.0</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="11">
-        <v>21666.67</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0.142528</v>
-      </c>
-      <c r="G8" s="13">
-        <f>SUM(E8*F8)</f>
-        <v>3088.10714176</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0.0696922</v>
-      </c>
-      <c r="I8" s="13">
-        <f>SUM(E8*H8)</f>
-        <v>1509.997898974</v>
-      </c>
-      <c r="J8" s="14">
-        <f>SUM(G8+I8)</f>
-        <v>4598.105040734</v>
-      </c>
-      <c r="K8" s="23"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.4">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="14">
-        <f>SUM(G6:G8)</f>
-        <v>4869.77394176</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14">
-        <f>SUM(I6:I8)</f>
-        <v>2509.997898974</v>
-      </c>
-      <c r="J9" s="24">
-        <f>SUM(J6:J8)</f>
-        <v>7379.771840734</v>
-      </c>
-      <c r="K9" s="25"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="landscape" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
-    <col min="2" max="16384" width="9.25" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="43">
-        <v>931.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="43">
-        <v>850.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="43">
-        <v>3088.11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -2580,7 +2009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -2593,7 +2022,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -2617,8 +2046,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -2635,8 +2066,10 @@
         <v>931.67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:6" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -2653,10 +2086,12 @@
         <v>850.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -2677,49 +2112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -3235,104 +2628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
-    <col min="2" max="16384" width="9.25" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="43">
-        <v>906.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="43">
-        <v>814.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="43">
-        <v>1598.87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -3345,7 +2641,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -3369,8 +2665,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -3387,8 +2685,10 @@
         <v>931.67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:6" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -3405,10 +2705,12 @@
         <v>850.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -3423,10 +2725,12 @@
         <v>2324.83</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:6" ht="45">
+      <c r="A5" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="B5" s="43" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -3447,49 +2751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -4227,7 +3489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -4240,7 +3502,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -4264,8 +3526,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -4282,8 +3546,10 @@
         <v>3673.31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:6" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -4300,10 +3566,12 @@
         <v>850.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -4318,10 +3586,12 @@
         <v>2324.83</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:6" ht="45">
+      <c r="A5" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="B5" s="43" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -4342,49 +3612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -4928,7 +4156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -4941,7 +4169,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -4965,8 +4193,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -4983,8 +4213,10 @@
         <v>1480.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:6" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -5001,10 +4233,12 @@
         <v>850.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -5019,10 +4253,12 @@
         <v>2324.83</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:6" ht="45">
+      <c r="A5" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="B5" s="43" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -5043,49 +4279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -5629,7 +4823,110 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="55" style="43"/>
+    <col min="2" max="16384" width="9.25" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="43">
+        <v>906.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="43">
+        <v>814.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="43">
+        <v>1598.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -5642,7 +4939,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -5666,8 +4963,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -5684,8 +4983,10 @@
         <v>1480.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:6" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -5702,10 +5003,12 @@
         <v>850.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -5720,10 +5023,12 @@
         <v>2324.83</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:6" ht="45">
+      <c r="A5" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="B5" s="43" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -5744,91 +5049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -6372,7 +5593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -6385,7 +5606,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -6409,8 +5630,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -6427,8 +5650,10 @@
         <v>1480.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:6" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -6445,10 +5670,12 @@
         <v>850.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -6463,10 +5690,12 @@
         <v>2324.83</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:6" ht="45">
+      <c r="A5" s="46" t="s">
+        <v>58</v>
+      </c>
       <c r="B5" s="43" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -6487,51 +5716,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -6539,7 +5726,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9.25" style="43"/>
+    <col min="1" max="1" width="17.75" style="43"/>
+    <col min="2" max="2" width="14.125" style="43"/>
+    <col min="3" max="3" width="8.25" style="43"/>
+    <col min="4" max="4" width="15.75" style="43"/>
+    <col min="5" max="5" width="13.25" style="43"/>
+    <col min="6" max="6" width="12.625" style="43"/>
+    <col min="7" max="7" width="15.75" style="43"/>
+    <col min="8" max="8" width="10.5" style="43"/>
+    <col min="9" max="9" width="22.125" style="43"/>
+    <col min="10" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15">
@@ -6554,22 +5750,312 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="43" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="43" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
+      <c r="A19" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6578,7 +6064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -6837,7 +6323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -6850,7 +6336,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -6874,8 +6360,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -6892,8 +6380,10 @@
         <v>906.67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:6" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -6910,10 +6400,12 @@
         <v>814.58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -6934,49 +6426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -7235,6 +6685,407 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="55" style="43"/>
+    <col min="2" max="16384" width="9.25" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="43">
+        <v>906.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="43">
+        <v>814.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="43">
+        <v>1598.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="C18" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="31.375" customWidth="1"/>
+    <col min="12" max="1025" width="8.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.4">
+      <c r="A2" s="1">
+        <v>603570.0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.4">
+      <c r="A3" s="5">
+        <v>43922.0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.4">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.4">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11">
+        <v>23291.67</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(E6*F6)</f>
+        <v>931.6668</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="13">
+        <f>SUM(E6*H6)</f>
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="14">
+        <f>SUM(G6+I6)</f>
+        <v>931.6668</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.4">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13">
+        <v>6280.0</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14">
+        <f>SUM(G7+I7)</f>
+        <v>6280.0</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="22" customFormat="1" ht="14.4">
+      <c r="A8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="11">
+        <v>10000.0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0.085</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(E8*F8)</f>
+        <v>850.0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="11">
+        <f>SUM(E8*H8)</f>
+        <v>1000.0</v>
+      </c>
+      <c r="J8" s="20">
+        <f>SUM(G8+I8)</f>
+        <v>1850.0</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.4">
+      <c r="A9" s="10">
+        <v>899555.0</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="11">
+        <v>21666.67</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.08269998</v>
+      </c>
+      <c r="G9" s="13">
+        <f>SUM(E9*F9)</f>
+        <v>1791.8331756666</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="I9" s="13">
+        <f>SUM(E9*H9)</f>
+        <v>650.0001</v>
+      </c>
+      <c r="J9" s="14">
+        <f>SUM(G9+I9)</f>
+        <v>2441.8332756666</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.4">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="14">
+        <f>SUM(G6:G9)</f>
+        <v>9853.4999756666</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14">
+        <f>SUM(I6:I9)</f>
+        <v>1650.0001</v>
+      </c>
+      <c r="J10" s="24">
+        <f>SUM(J6:J9)</f>
+        <v>11503.5000756666</v>
+      </c>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="12" spans="7:7" ht="14.4">
+      <c r="G12">
+        <v>6280.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="landscape" paperSize="9"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -7248,7 +7099,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="1" max="1" width="55" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
@@ -7272,8 +7123,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="46"/>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -7287,11 +7140,13 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
-        <v>906.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="46"/>
+        <v>7211.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45">
+      <c r="A3" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -7305,13 +7160,15 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
-        <v>814.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="46"/>
+        <v>850.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -7323,7 +7180,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
-        <v>1598.87</v>
+        <v>1791.83</v>
       </c>
     </row>
   </sheetData>
@@ -7335,41 +7192,258 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="43"/>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="31.375" customWidth="1"/>
+    <col min="12" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="47"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>64</v>
-      </c>
+    <row r="1" spans="1:11" ht="14.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.4">
+      <c r="A2" s="1">
+        <v>603570.0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.4">
+      <c r="A3" s="5">
+        <v>43952.0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.4">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.4">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11">
+        <v>23291.67</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(E6*F6)</f>
+        <v>931.6668</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="13">
+        <f>SUM(E6*H6)</f>
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="14">
+        <f>SUM(G6+I6)</f>
+        <v>931.6668</v>
+      </c>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" s="22" customFormat="1" ht="14.4">
+      <c r="A7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="11">
+        <v>10000.0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.085</v>
+      </c>
+      <c r="G7" s="11">
+        <f>SUM(E7*F7)</f>
+        <v>850.0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="11">
+        <f>SUM(E7*H7)</f>
+        <v>1000.0</v>
+      </c>
+      <c r="J7" s="20">
+        <f>SUM(G7+I7)</f>
+        <v>1850.0</v>
+      </c>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.4">
+      <c r="A8" s="10">
+        <v>899555.0</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="11">
+        <v>21666.67</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.142528</v>
+      </c>
+      <c r="G8" s="13">
+        <f>SUM(E8*F8)</f>
+        <v>3088.10714176</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.0696922</v>
+      </c>
+      <c r="I8" s="13">
+        <f>SUM(E8*H8)</f>
+        <v>1509.997898974</v>
+      </c>
+      <c r="J8" s="14">
+        <f>SUM(G8+I8)</f>
+        <v>4598.105040734</v>
+      </c>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.4">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="14">
+        <f>SUM(G6:G8)</f>
+        <v>4869.77394176</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14">
+        <f>SUM(I6:I8)</f>
+        <v>2509.997898974</v>
+      </c>
+      <c r="J9" s="24">
+        <f>SUM(J6:J8)</f>
+        <v>7379.771840734</v>
+      </c>
+      <c r="K9" s="25"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="landscape" paperSize="9"/>
 </worksheet>
 </file>
--- a/RegressionTests/Unit_Test_5/transformed_Ext_rows(1)/expected_sptrans_anon.603570-20_12_03 nov 7721.50.xlsx
+++ b/RegressionTests/Unit_Test_5/transformed_Ext_rows(1)/expected_sptrans_anon.603570-20_12_03 nov 7721.50.xlsx
@@ -593,10 +593,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
     </border>
   </borders>
@@ -625,7 +625,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -799,11 +799,14 @@
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1501,7 +1504,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -1521,7 +1524,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -2067,7 +2070,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -2087,7 +2090,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -2686,7 +2689,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -2706,7 +2709,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -2726,7 +2729,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -3547,7 +3550,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -3567,7 +3570,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -3587,7 +3590,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -4214,7 +4217,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -4234,7 +4237,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -4254,7 +4257,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -4881,7 +4884,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -4901,7 +4904,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -4984,7 +4987,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -5004,7 +5007,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -5024,7 +5027,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -5651,7 +5654,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -5671,7 +5674,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -5691,7 +5694,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -5769,31 +5772,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="48" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6381,7 +6384,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -6401,7 +6404,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -6743,7 +6746,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -6763,7 +6766,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -7144,7 +7147,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -7164,7 +7167,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="43" t="s">

--- a/RegressionTests/Unit_Test_5/transformed_Ext_rows(1)/expected_sptrans_anon.603570-20_12_03 nov 7721.50.xlsx
+++ b/RegressionTests/Unit_Test_5/transformed_Ext_rows(1)/expected_sptrans_anon.603570-20_12_03 nov 7721.50.xlsx
@@ -4,32 +4,43 @@
   <fileVersion appName="Calc"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="14" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="27" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="~January 2020" sheetId="1" r:id="rId2"/>
     <sheet name="January 2020" sheetId="12" r:id="rId3"/>
-    <sheet name="~February 2020" sheetId="2" r:id="rId4"/>
-    <sheet name="February 2020" sheetId="13" r:id="rId5"/>
-    <sheet name="~March 2020" sheetId="3" r:id="rId6"/>
-    <sheet name="March 2020" sheetId="14" r:id="rId7"/>
-    <sheet name="~April 2020" sheetId="4" r:id="rId8"/>
-    <sheet name="April 2020" sheetId="15" r:id="rId9"/>
-    <sheet name="~May 2020" sheetId="5" r:id="rId10"/>
-    <sheet name="May 2020" sheetId="16" r:id="rId11"/>
-    <sheet name="~June 2020" sheetId="6" r:id="rId12"/>
-    <sheet name="June 2020" sheetId="17" r:id="rId13"/>
-    <sheet name="~July 2020" sheetId="7" r:id="rId14"/>
-    <sheet name="July 2020" sheetId="18" r:id="rId15"/>
-    <sheet name="~August 2020" sheetId="8" r:id="rId16"/>
-    <sheet name="August 2020" sheetId="19" r:id="rId17"/>
-    <sheet name="~September 2020" sheetId="9" r:id="rId18"/>
-    <sheet name="September 2020" sheetId="20" r:id="rId19"/>
-    <sheet name="~October 2020" sheetId="10" r:id="rId20"/>
-    <sheet name="October 2020" sheetId="21" r:id="rId21"/>
-    <sheet name="~November 2020" sheetId="11" r:id="rId22"/>
-    <sheet name="November 2020" sheetId="22" r:id="rId23"/>
-    <sheet name="#November 2020" sheetId="23" r:id="rId24"/>
+    <sheet name="$January 2020" sheetId="24" r:id="rId4"/>
+    <sheet name="~February 2020" sheetId="2" r:id="rId5"/>
+    <sheet name="February 2020" sheetId="13" r:id="rId6"/>
+    <sheet name="$February 2020" sheetId="25" r:id="rId7"/>
+    <sheet name="~March 2020" sheetId="3" r:id="rId8"/>
+    <sheet name="March 2020" sheetId="14" r:id="rId9"/>
+    <sheet name="$March 2020" sheetId="26" r:id="rId10"/>
+    <sheet name="~April 2020" sheetId="4" r:id="rId11"/>
+    <sheet name="April 2020" sheetId="15" r:id="rId12"/>
+    <sheet name="$April 2020" sheetId="27" r:id="rId13"/>
+    <sheet name="~May 2020" sheetId="5" r:id="rId14"/>
+    <sheet name="May 2020" sheetId="16" r:id="rId15"/>
+    <sheet name="$May 2020" sheetId="28" r:id="rId16"/>
+    <sheet name="~June 2020" sheetId="6" r:id="rId17"/>
+    <sheet name="June 2020" sheetId="17" r:id="rId18"/>
+    <sheet name="$June 2020" sheetId="29" r:id="rId19"/>
+    <sheet name="~July 2020" sheetId="7" r:id="rId20"/>
+    <sheet name="July 2020" sheetId="18" r:id="rId21"/>
+    <sheet name="$July 2020" sheetId="30" r:id="rId22"/>
+    <sheet name="~August 2020" sheetId="8" r:id="rId23"/>
+    <sheet name="August 2020" sheetId="19" r:id="rId24"/>
+    <sheet name="$August 2020" sheetId="31" r:id="rId25"/>
+    <sheet name="~September 2020" sheetId="9" r:id="rId26"/>
+    <sheet name="September 2020" sheetId="20" r:id="rId27"/>
+    <sheet name="$September 2020" sheetId="32" r:id="rId28"/>
+    <sheet name="~October 2020" sheetId="10" r:id="rId29"/>
+    <sheet name="October 2020" sheetId="21" r:id="rId30"/>
+    <sheet name="$October 2020" sheetId="33" r:id="rId31"/>
+    <sheet name="~November 2020" sheetId="11" r:id="rId32"/>
+    <sheet name="November 2020" sheetId="22" r:id="rId33"/>
+    <sheet name="$November 2020" sheetId="34" r:id="rId34"/>
+    <sheet name="#November 2020" sheetId="23" r:id="rId35"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913"/>
@@ -38,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="65">
   <si>
     <t>ACG Aircraft Leasing Ireland Limited</t>
   </si>
@@ -235,27 +246,7 @@
     <t>SPER</t>
   </si>
   <si>
-    <t>Refno 0798147 does not exist for Scheme ID 601010
-PPS number 4073312M does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0913434 does not exist for Scheme ID 601010
-PPS number 5439331U does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Refno 0899555 does not exist for Scheme ID 601010
-PPS number 2576389U does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>899555</t>
-  </si>
-  <si>
-    <t>Refno 0969877 does not exist for Scheme ID 601010
-PPS number 6187938N does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
   </si>
   <si>
     <t>969877</t>
@@ -273,169 +264,19 @@
     <t>False</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
+    <t>1_Errors_found</t>
   </si>
   <si>
-    <t>Invoice Number</t>
+    <t>Error Type</t>
   </si>
   <si>
-    <t>Paypoint</t>
+    <t>Error Description</t>
   </si>
   <si>
-    <t>Collection Method</t>
+    <t>schemeNotNull</t>
   </si>
   <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>1178489</t>
-  </si>
-  <si>
-    <t>101001</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>18/08/2021</t>
-  </si>
-  <si>
-    <t>7,517.33</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>ILIM August 2021</t>
-  </si>
-  <si>
-    <t>1173971</t>
-  </si>
-  <si>
-    <t>16/07/2021</t>
-  </si>
-  <si>
-    <t>1,533.32</t>
-  </si>
-  <si>
-    <t>01/06/2021</t>
-  </si>
-  <si>
-    <t>ILIM Julne 2021</t>
-  </si>
-  <si>
-    <t>1173522</t>
-  </si>
-  <si>
-    <t>5,984.01</t>
-  </si>
-  <si>
-    <t>ILIM June 2021</t>
-  </si>
-  <si>
-    <t>Annually</t>
-  </si>
-  <si>
-    <t>1149840</t>
-  </si>
-  <si>
-    <t>101002</t>
-  </si>
-  <si>
-    <t>25/02/2021</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>19,177.74</t>
-  </si>
-  <si>
-    <t>Revised Risk (Total/12*4)</t>
-  </si>
-  <si>
-    <t>1122062</t>
-  </si>
-  <si>
-    <t>01/07/2020</t>
-  </si>
-  <si>
-    <t>19,974.02</t>
-  </si>
-  <si>
-    <t>2020Risk</t>
-  </si>
-  <si>
-    <t>1067417</t>
-  </si>
-  <si>
-    <t>01/07/2019</t>
-  </si>
-  <si>
-    <t>15,889.15</t>
-  </si>
-  <si>
-    <t>2019 Costs</t>
-  </si>
-  <si>
-    <t>35300</t>
-  </si>
-  <si>
-    <t>101000</t>
-  </si>
-  <si>
-    <t>30/05/2000</t>
-  </si>
-  <si>
-    <t>06/04/2000</t>
-  </si>
-  <si>
-    <t>1,250.13</t>
-  </si>
-  <si>
-    <t>01/05/2000</t>
-  </si>
-  <si>
-    <t>May 00</t>
-  </si>
-  <si>
-    <t>35036</t>
-  </si>
-  <si>
-    <t>24/05/2000</t>
-  </si>
-  <si>
-    <t>03/05/2000</t>
-  </si>
-  <si>
-    <t>01/04/2000</t>
-  </si>
-  <si>
-    <t>Apr '00 intd</t>
-  </si>
-  <si>
-    <t>29038</t>
-  </si>
-  <si>
-    <t>15/03/2000</t>
-  </si>
-  <si>
-    <t>01/03/2000</t>
-  </si>
-  <si>
-    <t>Mar 00</t>
+    <t>The Scheme ID is missing</t>
   </si>
 </sst>
 </file>
@@ -453,7 +294,7 @@
     <numFmt numFmtId="171" formatCode="0.00"/>
     <numFmt numFmtId="172" formatCode="0%"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -533,6 +374,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,22 +388,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +399,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +471,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -798,20 +644,21 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1449,6 +1296,304 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="C18" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="31.375" customWidth="1"/>
+    <col min="12" max="1025" width="8.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.4">
+      <c r="A2" s="1">
+        <v>603570.0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.4">
+      <c r="A3" s="5">
+        <v>43922.0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.4">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.4">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11">
+        <v>23291.67</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(E6*F6)</f>
+        <v>931.6668</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="13">
+        <f>SUM(E6*H6)</f>
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="14">
+        <f>SUM(G6+I6)</f>
+        <v>931.6668</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.4">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13">
+        <v>6280.0</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14">
+        <f>SUM(G7+I7)</f>
+        <v>6280.0</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="22" customFormat="1" ht="14.4">
+      <c r="A8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="11">
+        <v>10000.0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0.085</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(E8*F8)</f>
+        <v>850.0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="11">
+        <f>SUM(E8*H8)</f>
+        <v>1000.0</v>
+      </c>
+      <c r="J8" s="20">
+        <f>SUM(G8+I8)</f>
+        <v>1850.0</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.4">
+      <c r="A9" s="10">
+        <v>899555.0</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="11">
+        <v>21666.67</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.08269998</v>
+      </c>
+      <c r="G9" s="13">
+        <f>SUM(E9*F9)</f>
+        <v>1791.8331756666</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="I9" s="13">
+        <f>SUM(E9*H9)</f>
+        <v>650.0001</v>
+      </c>
+      <c r="J9" s="14">
+        <f>SUM(G9+I9)</f>
+        <v>2441.8332756666</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.4">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="14">
+        <f>SUM(G6:G9)</f>
+        <v>9853.4999756666</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14">
+        <f>SUM(I6:I9)</f>
+        <v>1650.0001</v>
+      </c>
+      <c r="J10" s="24">
+        <f>SUM(J6:J9)</f>
+        <v>11503.5000756666</v>
+      </c>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="12" spans="7:7" ht="14.4">
+      <c r="G12">
+        <v>6280.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="landscape" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:F4"/>
@@ -1459,11 +1604,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -1483,10 +1628,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -1500,13 +1643,11 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
-        <v>931.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+        <v>7211.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -1523,12 +1664,10 @@
         <v>850.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -1540,7 +1679,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
-        <v>3088.11</v>
+        <v>1791.83</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1688,447 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="48"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFFFFFF"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="31.375" customWidth="1"/>
+    <col min="12" max="1025" width="8.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.4">
+      <c r="A2" s="1">
+        <v>603570.0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.4">
+      <c r="A3" s="5">
+        <v>43952.0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.4">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.4">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11">
+        <v>23291.67</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(E6*F6)</f>
+        <v>931.6668</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="13">
+        <f>SUM(E6*H6)</f>
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="14">
+        <f>SUM(G6+I6)</f>
+        <v>931.6668</v>
+      </c>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" s="22" customFormat="1" ht="14.4">
+      <c r="A7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="11">
+        <v>10000.0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.085</v>
+      </c>
+      <c r="G7" s="11">
+        <f>SUM(E7*F7)</f>
+        <v>850.0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="11">
+        <f>SUM(E7*H7)</f>
+        <v>1000.0</v>
+      </c>
+      <c r="J7" s="20">
+        <f>SUM(G7+I7)</f>
+        <v>1850.0</v>
+      </c>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.4">
+      <c r="A8" s="10">
+        <v>899555.0</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="11">
+        <v>21666.67</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.142528</v>
+      </c>
+      <c r="G8" s="13">
+        <f>SUM(E8*F8)</f>
+        <v>3088.10714176</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.0696922</v>
+      </c>
+      <c r="I8" s="13">
+        <f>SUM(E8*H8)</f>
+        <v>1509.997898974</v>
+      </c>
+      <c r="J8" s="14">
+        <f>SUM(G8+I8)</f>
+        <v>4598.105040734</v>
+      </c>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.4">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="14">
+        <f>SUM(G6:G8)</f>
+        <v>4869.77394176</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14">
+        <f>SUM(I6:I8)</f>
+        <v>2509.997898974</v>
+      </c>
+      <c r="J9" s="24">
+        <f>SUM(J6:J8)</f>
+        <v>7379.771840734</v>
+      </c>
+      <c r="K9" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="landscape" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="2" max="16384" width="9.25" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30">
+      <c r="A1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="43">
+        <v>931.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="43">
+        <v>850.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="43">
+        <v>3088.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="48"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -2012,7 +2591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -2025,11 +2604,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -2049,10 +2628,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -2069,10 +2646,8 @@
         <v>931.67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -2089,12 +2664,10 @@
         <v>850.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -2115,7 +2688,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="48"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -2631,7 +3246,104 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.25" style="43"/>
+    <col min="2" max="16384" width="9.25" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30">
+      <c r="A1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="43">
+        <v>906.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="43">
+        <v>814.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="43">
+        <v>1598.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -2644,11 +3356,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -2668,10 +3380,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -2688,10 +3398,8 @@
         <v>931.67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -2708,12 +3416,10 @@
         <v>850.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -2728,12 +3434,10 @@
         <v>2324.83</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45">
-      <c r="A5" s="47" t="s">
-        <v>58</v>
-      </c>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="47"/>
       <c r="B5" s="43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -2754,7 +3458,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="48"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -3492,7 +4238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -3505,11 +4251,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -3529,10 +4275,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -3549,10 +4293,8 @@
         <v>3673.31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -3569,12 +4311,10 @@
         <v>850.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -3589,12 +4329,10 @@
         <v>2324.83</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45">
-      <c r="A5" s="47" t="s">
-        <v>58</v>
-      </c>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="47"/>
       <c r="B5" s="43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -3615,7 +4353,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="48"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -4159,7 +4939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -4172,11 +4952,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -4196,10 +4976,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -4216,10 +4994,8 @@
         <v>1480.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -4236,12 +5012,10 @@
         <v>850.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -4256,12 +5030,10 @@
         <v>2324.83</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45">
-      <c r="A5" s="47" t="s">
-        <v>58</v>
-      </c>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="47"/>
       <c r="B5" s="43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -4282,7 +5054,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="48"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -4826,110 +5640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="55" style="43"/>
-    <col min="2" max="16384" width="9.25" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="43">
-        <v>906.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="43">
-        <v>814.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="43">
-        <v>1598.87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -4942,11 +5653,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -4966,10 +5677,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -4986,10 +5695,8 @@
         <v>1480.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -5006,12 +5713,10 @@
         <v>850.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -5026,12 +5731,10 @@
         <v>2324.83</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45">
-      <c r="A5" s="47" t="s">
-        <v>58</v>
-      </c>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="47"/>
       <c r="B5" s="43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -5052,7 +5755,91 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="48"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="48"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -5596,7 +6383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -5609,11 +6396,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -5633,10 +6420,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -5653,10 +6438,8 @@
         <v>1480.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -5673,12 +6456,10 @@
         <v>850.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -5693,12 +6474,10 @@
         <v>2324.83</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45">
-      <c r="A5" s="47" t="s">
-        <v>58</v>
-      </c>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="47"/>
       <c r="B5" s="43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>35</v>
@@ -5719,9 +6498,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I21"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="48"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -5729,16 +6550,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="43"/>
-    <col min="2" max="2" width="14.125" style="43"/>
-    <col min="3" max="3" width="8.25" style="43"/>
-    <col min="4" max="4" width="15.75" style="43"/>
-    <col min="5" max="5" width="13.25" style="43"/>
-    <col min="6" max="6" width="12.625" style="43"/>
-    <col min="7" max="7" width="15.75" style="43"/>
-    <col min="8" max="8" width="10.5" style="43"/>
-    <col min="9" max="9" width="22.125" style="43"/>
-    <col min="10" max="16384" width="9.25" style="43"/>
+    <col min="1" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15">
@@ -5753,312 +6565,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="43" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15">
-      <c r="A19" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15">
-      <c r="A20" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15">
-      <c r="A21" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -6067,7 +6589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -6326,7 +6848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -6339,11 +6861,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -6363,10 +6885,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -6383,10 +6903,8 @@
         <v>906.67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -6403,12 +6921,10 @@
         <v>814.58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -6429,7 +6945,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="48"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
@@ -6688,407 +7246,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="55" style="43"/>
-    <col min="2" max="16384" width="9.25" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="43">
-        <v>906.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="43">
-        <v>814.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="43">
-        <v>1598.87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="C18" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="31.375" customWidth="1"/>
-    <col min="12" max="1025" width="8.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="14.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.4">
-      <c r="A2" s="1">
-        <v>603570.0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.4">
-      <c r="A3" s="5">
-        <v>43922.0</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="14.4">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.4">
-      <c r="A6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="11">
-        <v>23291.67</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="G6" s="13">
-        <f>SUM(E6*F6)</f>
-        <v>931.6668</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="13">
-        <f>SUM(E6*H6)</f>
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="14">
-        <f>SUM(G6+I6)</f>
-        <v>931.6668</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.4">
-      <c r="A7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13">
-        <v>6280.0</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14">
-        <f>SUM(G7+I7)</f>
-        <v>6280.0</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="22" customFormat="1" ht="14.4">
-      <c r="A8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0.085</v>
-      </c>
-      <c r="G8" s="11">
-        <f>SUM(E8*F8)</f>
-        <v>850.0</v>
-      </c>
-      <c r="H8" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="I8" s="11">
-        <f>SUM(E8*H8)</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J8" s="20">
-        <f>SUM(G8+I8)</f>
-        <v>1850.0</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.4">
-      <c r="A9" s="10">
-        <v>899555.0</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="11">
-        <v>21666.67</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.08269998</v>
-      </c>
-      <c r="G9" s="13">
-        <f>SUM(E9*F9)</f>
-        <v>1791.8331756666</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="I9" s="13">
-        <f>SUM(E9*H9)</f>
-        <v>650.0001</v>
-      </c>
-      <c r="J9" s="14">
-        <f>SUM(G9+I9)</f>
-        <v>2441.8332756666</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.4">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="14">
-        <f>SUM(G6:G9)</f>
-        <v>9853.4999756666</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14">
-        <f>SUM(I6:I9)</f>
-        <v>1650.0001</v>
-      </c>
-      <c r="J10" s="24">
-        <f>SUM(J6:J9)</f>
-        <v>11503.5000756666</v>
-      </c>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="12" spans="7:7" ht="14.4">
-      <c r="G12">
-        <v>6280.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="landscape" paperSize="9"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -7102,11 +7259,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55" style="43"/>
+    <col min="1" max="1" width="16.25" style="43"/>
     <col min="2" max="16384" width="9.25" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
@@ -7126,10 +7283,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
-      <c r="A2" s="46" t="s">
-        <v>54</v>
-      </c>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="46"/>
       <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
@@ -7143,13 +7298,11 @@
         <v>15</v>
       </c>
       <c r="F2" s="43">
-        <v>7211.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="47" t="s">
-        <v>55</v>
-      </c>
+        <v>906.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="47"/>
       <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
@@ -7163,15 +7316,13 @@
         <v>19</v>
       </c>
       <c r="F3" s="43">
-        <v>850.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="47" t="s">
-        <v>56</v>
-      </c>
+        <v>814.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>20</v>
@@ -7183,7 +7334,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="43">
-        <v>1791.83</v>
+        <v>1598.87</v>
       </c>
     </row>
   </sheetData>
@@ -7195,258 +7346,41 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="1"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="31.375" customWidth="1"/>
-    <col min="12" max="1025" width="8.5" customWidth="1"/>
+    <col min="1" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.4">
-      <c r="A2" s="1">
-        <v>603570.0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.4">
-      <c r="A3" s="5">
-        <v>43952.0</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="14.4">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.4">
-      <c r="A6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="11">
-        <v>23291.67</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="G6" s="13">
-        <f>SUM(E6*F6)</f>
-        <v>931.6668</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="13">
-        <f>SUM(E6*H6)</f>
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="14">
-        <f>SUM(G6+I6)</f>
-        <v>931.6668</v>
-      </c>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" s="22" customFormat="1" ht="14.4">
-      <c r="A7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="11">
-        <v>10000.0</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0.085</v>
-      </c>
-      <c r="G7" s="11">
-        <f>SUM(E7*F7)</f>
-        <v>850.0</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="I7" s="11">
-        <f>SUM(E7*H7)</f>
-        <v>1000.0</v>
-      </c>
-      <c r="J7" s="20">
-        <f>SUM(G7+I7)</f>
-        <v>1850.0</v>
-      </c>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" ht="14.4">
-      <c r="A8" s="10">
-        <v>899555.0</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="11">
-        <v>21666.67</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0.142528</v>
-      </c>
-      <c r="G8" s="13">
-        <f>SUM(E8*F8)</f>
-        <v>3088.10714176</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0.0696922</v>
-      </c>
-      <c r="I8" s="13">
-        <f>SUM(E8*H8)</f>
-        <v>1509.997898974</v>
-      </c>
-      <c r="J8" s="14">
-        <f>SUM(G8+I8)</f>
-        <v>4598.105040734</v>
-      </c>
-      <c r="K8" s="23"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.4">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="14">
-        <f>SUM(G6:G8)</f>
-        <v>4869.77394176</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14">
-        <f>SUM(I6:I8)</f>
-        <v>2509.997898974</v>
-      </c>
-      <c r="J9" s="24">
-        <f>SUM(J6:J8)</f>
-        <v>7379.771840734</v>
-      </c>
-      <c r="K9" s="25"/>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="48"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="landscape" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>